--- a/资料/BOM修订版_ESPlay Micro微型开源游戏掌机（精修版2.0）.xlsx
+++ b/资料/BOM修订版_ESPlay Micro微型开源游戏掌机（精修版2.0）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\dev-hardware\ESPlay\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE61623A-3F86-4D50-A377-F76B27600F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF2D6A5-630B-4A71-BA25-ED4DF45DE2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4640" yWindow="5630" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(原版导出)sheet" sheetId="1" r:id="rId1"/>
@@ -88,6 +88,32 @@
           </rPr>
           <t xml:space="preserve">
 在嘉立创EDA的查找功能搜索即可</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{7BB9A1F5-FF59-4914-888C-CA58542CDC25}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>can:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+胆电容！</t>
         </r>
       </text>
     </comment>
@@ -325,6 +351,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="A32" authorId="0" shapeId="0" xr:uid="{D7277FBF-A58B-4662-A248-6A05309192AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>can:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+淘宝</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F32" authorId="0" shapeId="0" xr:uid="{CB4FD56A-7014-40F0-AB54-F3D2CE47EB7F}">
       <text>
         <r>
@@ -348,6 +400,32 @@
           </rPr>
           <t xml:space="preserve">
 屏幕排线的FPC连接器不需要购买，在触点上少量锡，对齐屏幕后再用电烙铁焊接</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{9E90761C-5C1B-4225-B563-D823F31C2E93}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>can:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+淘宝 ESP32-WROVER-IE</t>
         </r>
       </text>
     </comment>
@@ -377,7 +455,59 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0" shapeId="0" xr:uid="{102E186E-8829-4B15-BFC2-3E64C3551C2F}">
+    <comment ref="A34" authorId="0" shapeId="0" xr:uid="{DFAD9F2A-B30D-443C-A0FF-5533CC33BA20}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>can:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+淘宝上买比较便宜</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A37" authorId="0" shapeId="0" xr:uid="{75C877F6-CAF4-4D36-A743-6166B0E721CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>can:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+嘉立创无货，淘宝上买</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F40" authorId="0" shapeId="0" xr:uid="{102E186E-8829-4B15-BFC2-3E64C3551C2F}">
       <text>
         <r>
           <rPr>
@@ -400,6 +530,32 @@
           </rPr>
           <t xml:space="preserve">
 电池的焊接需要小心，因为焊接时若不小心造成正负极短路可能造成火灾，建议焊接电池插座</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{C8158484-70FF-4819-8C02-F24828F6D100}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>can:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+线对板针座/1x2P 间距:2mm 立贴 系列:PH 编带</t>
         </r>
       </text>
     </comment>
@@ -486,7 +642,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="414">
   <si>
     <t>ID</t>
   </si>
@@ -1002,18 +1158,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>屏幕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BUSY/CHRG/FULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指示灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拨动开关，总开关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1062,18 +1210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按键，重置按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按键，软按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按键，铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PCF8574</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1090,10 +1226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按键，肩键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D2,D3,D4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1106,10 +1238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电池座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TF卡座</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1119,10 +1247,6 @@
   </si>
   <si>
     <t>3.5mm耳机插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喇叭排线插座</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2037,12 +2161,80 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1uF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ILI9341-2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光二极管/LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2uF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY-SMD_2P-L6.0-W6.0-P6.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻触开关，软按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻触开关，铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻触开关，重置按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻触开关，肩键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP32-WROVER-I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕，注意要买18PIN焊接型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喇叭排线插座，无需购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池座，非必要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡膏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2173,8 +2365,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2255,13 +2454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2422,7 +2615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2445,39 +2638,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2515,7 +2675,46 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2528,10 +2727,6 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2542,6 +2737,10 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -2572,17 +2771,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C2DD5250-A41B-4806-BEEC-96ECACA89FAE}" name="表1_3" displayName="表1_3" ref="A1:F48" totalsRowShown="0">
-  <autoFilter ref="A1:F48" xr:uid="{A262935E-44C8-43F8-BDF9-770A97D22E7B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C2DD5250-A41B-4806-BEEC-96ECACA89FAE}" name="表1_3" displayName="表1_3" ref="A1:F51" totalsRowShown="0">
+  <autoFilter ref="A1:F51" xr:uid="{A262935E-44C8-43F8-BDF9-770A97D22E7B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
     <sortCondition ref="C1:C44"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{C2E848CD-EAA9-4A26-AAB1-390DE4CFCA3F}" name="Name 元件名称"/>
-    <tableColumn id="7" xr3:uid="{29A91EDD-9DDE-444A-9135-2C32B0D6653B}" name="当前库存数量" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{29A91EDD-9DDE-444A-9135-2C32B0D6653B}" name="当前库存数量" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{2DB6BC8B-5936-4EA0-91E5-E4F5FC16E65F}" name="Designator 元件位号"/>
     <tableColumn id="4" xr3:uid="{8CA536B8-42E4-4E7F-96D4-3B926D270F5A}" name="Footprint"/>
-    <tableColumn id="5" xr3:uid="{8F7A1F3E-EE2B-4A9B-A30F-510D6AFE43AB}" name="Quantity 数量" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{8F7A1F3E-EE2B-4A9B-A30F-510D6AFE43AB}" name="Quantity 数量" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{FA2BCBA6-8F47-4E41-A7A2-699E6C4EB11D}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2594,7 +2793,7 @@
   <autoFilter ref="A1:C9" xr:uid="{AA1D1BC7-277C-44BA-8BA5-97EA7E2508B7}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{EC3393F5-51A5-49C3-A318-584182BFA1D1}" name="名称"/>
-    <tableColumn id="2" xr3:uid="{AE1DDD17-0CBD-4670-A15E-6B0C12D3CFE1}" name="链接" dataDxfId="1" dataCellStyle="超链接"/>
+    <tableColumn id="2" xr3:uid="{AE1DDD17-0CBD-4670-A15E-6B0C12D3CFE1}" name="链接" dataDxfId="0" dataCellStyle="超链接"/>
     <tableColumn id="3" xr3:uid="{410FC969-883C-4F7C-BC58-EE8444A49015}" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4105,10 +4304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540C55FA-B33A-44A4-B95D-35AD37709E44}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,19 +4322,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
         <v>162</v>
@@ -4143,10 +4342,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="37">
-        <v>1</v>
+        <v>397</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -4163,10 +4362,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="37">
-        <v>2</v>
+        <v>400</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="C3" t="s">
         <v>88</v>
@@ -4185,8 +4384,8 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1">
-        <v>4</v>
+      <c r="B4" s="39">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -4198,7 +4397,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4206,15 +4405,15 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="40">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -4226,7 +4425,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -4246,10 +4445,10 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -4266,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -4286,7 +4485,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -4305,16 +4504,16 @@
       <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>404</v>
+      <c r="B10" s="39">
+        <v>0</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>396</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="40">
         <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4326,7 +4525,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -4346,10 +4545,10 @@
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D12" t="s">
         <v>42</v>
@@ -4366,10 +4565,10 @@
         <v>119</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
         <v>42</v>
@@ -4386,7 +4585,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
@@ -4406,7 +4605,7 @@
         <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
@@ -4426,7 +4625,7 @@
         <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -4446,7 +4645,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -4466,7 +4665,7 @@
         <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
@@ -4486,7 +4685,7 @@
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
         <v>56</v>
@@ -4506,7 +4705,7 @@
         <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -4526,7 +4725,7 @@
         <v>116</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s">
         <v>117</v>
@@ -4543,13 +4742,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
         <v>95</v>
@@ -4558,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>184</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4578,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>191</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4598,27 +4797,27 @@
         <v>1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>164</v>
       </c>
-      <c r="B25" s="37">
-        <v>9</v>
+      <c r="B25" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="C25" t="s">
         <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>401</v>
       </c>
       <c r="E25" s="1">
         <v>6</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>185</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4638,15 +4837,15 @@
         <v>3</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="37">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="C27" t="s">
         <v>112</v>
@@ -4658,35 +4857,35 @@
         <v>1</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>171</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C29" t="s">
         <v>39</v>
@@ -4698,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4706,7 +4905,7 @@
         <v>146</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
         <v>147</v>
@@ -4718,15 +4917,15 @@
         <v>3</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
@@ -4738,15 +4937,15 @@
         <v>2</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="37">
-        <v>0</v>
+        <v>398</v>
+      </c>
+      <c r="B32" s="26">
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>110</v>
@@ -4758,15 +4957,15 @@
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>169</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="37">
-        <v>0</v>
+        <v>406</v>
+      </c>
+      <c r="B33" s="27">
+        <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>84</v>
@@ -4778,15 +4977,15 @@
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" s="37">
-        <v>1</v>
+        <v>182</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
       </c>
       <c r="C34" t="s">
         <v>160</v>
@@ -4798,12 +4997,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -4818,14 +5017,14 @@
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="26">
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -4838,15 +5037,15 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="37">
-        <v>0</v>
+      <c r="B37" s="1">
+        <v>2</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -4858,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -4878,55 +5077,55 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="38">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B39" s="1">
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="1">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>198</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="38">
-        <v>0</v>
+      <c r="B41" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
@@ -4938,15 +5137,15 @@
         <v>2</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>199</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="1">
-        <v>3</v>
+      <c r="B42" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="C42" t="s">
         <v>100</v>
@@ -4958,15 +5157,15 @@
         <v>1</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="37">
-        <v>1</v>
+      <c r="B43" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="C43" t="s">
         <v>78</v>
@@ -4978,15 +5177,15 @@
         <v>1</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="37">
-        <v>1</v>
+      <c r="B44" s="27" t="s">
+        <v>202</v>
       </c>
       <c r="C44" t="s">
         <v>81</v>
@@ -4998,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5006,10 +5205,10 @@
         <v>90</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s">
         <v>92</v>
@@ -5018,7 +5217,7 @@
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5026,7 +5225,7 @@
         <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C46" t="s">
         <v>97</v>
@@ -5038,12 +5237,12 @@
         <v>4</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C47" t="s">
         <v>102</v>
@@ -5055,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5074,6 +5273,30 @@
       <c r="F48" t="s">
         <v>168</v>
       </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>412</v>
+      </c>
+      <c r="E51" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5356,86 +5579,86 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5461,8 +5684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694BE6AD-6810-4007-B647-10BD8446C2E9}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5854,1465 +6077,1465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="77" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="C4" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
+      <c r="H4" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25" t="s">
+      <c r="I4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="K4" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="L4" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="28" t="s">
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="B5" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="E5" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="F5" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="G5" s="19">
+        <v>650</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>27.15</v>
+      </c>
+      <c r="K5" s="19">
+        <v>27.15</v>
+      </c>
+      <c r="L5" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="I4" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="J4" s="28" t="s">
+    </row>
+    <row r="6" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="E6" s="19" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="F6" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="G6" s="19">
+        <v>4000</v>
+      </c>
+      <c r="H6" s="19">
+        <v>20</v>
+      </c>
+      <c r="I6" s="19">
+        <v>20</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.143095</v>
+      </c>
+      <c r="K6" s="19">
+        <v>2.86</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="G7" s="19">
+        <v>4000</v>
+      </c>
+      <c r="H7" s="19">
+        <v>5</v>
+      </c>
+      <c r="I7" s="19">
+        <v>5</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.53347699999999998</v>
+      </c>
+      <c r="K7" s="19">
+        <v>2.67</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" s="22">
+        <v>4000</v>
+      </c>
+      <c r="H8" s="22">
+        <v>50</v>
+      </c>
+      <c r="I8" s="22">
+        <v>50</v>
+      </c>
+      <c r="J8" s="22">
+        <v>7.4642E-2</v>
+      </c>
+      <c r="K8" s="22">
+        <v>3.73</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="22">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="22">
+        <v>50</v>
+      </c>
+      <c r="I9" s="22">
+        <v>50</v>
+      </c>
+      <c r="J9" s="22">
+        <v>4.8708000000000001E-2</v>
+      </c>
+      <c r="K9" s="22">
+        <v>2.44</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="G5" s="30">
-        <v>650</v>
-      </c>
-      <c r="H5" s="30">
-        <v>1</v>
-      </c>
-      <c r="I5" s="30">
-        <v>1</v>
-      </c>
-      <c r="J5" s="30">
-        <v>27.15</v>
-      </c>
-      <c r="K5" s="30">
-        <v>27.15</v>
-      </c>
-      <c r="L5" s="31" t="s">
+      <c r="D10" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="31" t="s">
+      <c r="F10" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="19">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="19">
+        <v>20</v>
+      </c>
+      <c r="I10" s="19">
+        <v>20</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.27704099999999998</v>
+      </c>
+      <c r="K10" s="19">
+        <v>5.54</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="19">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>4</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1.4165000000000001</v>
+      </c>
+      <c r="K11" s="19">
+        <v>5.67</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="22">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1</v>
+      </c>
+      <c r="I12" s="22">
+        <v>4</v>
+      </c>
+      <c r="J12" s="22">
+        <v>2.862E-2</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0.11</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="19">
+        <v>4000</v>
+      </c>
+      <c r="H13" s="19">
+        <v>50</v>
+      </c>
+      <c r="I13" s="19">
+        <v>50</v>
+      </c>
+      <c r="J13" s="19">
+        <v>3.1509000000000002E-2</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1.58</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="B14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" s="19">
+        <v>3000</v>
+      </c>
+      <c r="H14" s="19">
+        <v>10</v>
+      </c>
+      <c r="I14" s="19">
+        <v>10</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0.243949</v>
+      </c>
+      <c r="K14" s="19">
+        <v>2.44</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G15" s="19">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="19">
+        <v>20</v>
+      </c>
+      <c r="I15" s="19">
+        <v>20</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0.128025</v>
+      </c>
+      <c r="K15" s="19">
+        <v>2.56</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2500</v>
+      </c>
+      <c r="H16" s="19">
+        <v>10</v>
+      </c>
+      <c r="I16" s="19">
+        <v>10</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0.33524999999999999</v>
+      </c>
+      <c r="K16" s="19">
+        <v>3.35</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" s="22">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="22">
+        <v>10</v>
+      </c>
+      <c r="I17" s="22">
+        <v>10</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0.28954200000000002</v>
+      </c>
+      <c r="K17" s="22">
+        <v>2.9</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="G18" s="19">
+        <v>39</v>
+      </c>
+      <c r="H18" s="19">
+        <v>13</v>
+      </c>
+      <c r="I18" s="19">
+        <v>13</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0.59494899999999995</v>
+      </c>
+      <c r="K18" s="19">
+        <v>7.73</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="G19" s="19">
+        <v>3000</v>
+      </c>
+      <c r="H19" s="19">
+        <v>10</v>
+      </c>
+      <c r="I19" s="19">
+        <v>10</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0.32025599999999999</v>
+      </c>
+      <c r="K19" s="19">
+        <v>3.2</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20" s="19">
+        <v>3000</v>
+      </c>
+      <c r="H20" s="19">
+        <v>20</v>
+      </c>
+      <c r="I20" s="19">
+        <v>20</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0.122444</v>
+      </c>
+      <c r="K20" s="19">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" s="19">
+        <v>5000</v>
+      </c>
+      <c r="H21" s="19">
+        <v>100</v>
+      </c>
+      <c r="I21" s="19">
+        <v>100</v>
+      </c>
+      <c r="J21" s="19">
+        <v>7.7609999999999997E-3</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0.78</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22" s="22">
+        <v>5000</v>
+      </c>
+      <c r="H22" s="22">
+        <v>100</v>
+      </c>
+      <c r="I22" s="22">
+        <v>100</v>
+      </c>
+      <c r="J22" s="22">
+        <v>5.5069999999999997E-3</v>
+      </c>
+      <c r="K22" s="22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G23" s="19">
+        <v>5000</v>
+      </c>
+      <c r="H23" s="19">
+        <v>100</v>
+      </c>
+      <c r="I23" s="19">
+        <v>100</v>
+      </c>
+      <c r="J23" s="19">
+        <v>5.555E-3</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G6" s="30">
+      <c r="D24" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G24" s="22">
+        <v>5000</v>
+      </c>
+      <c r="H24" s="22">
+        <v>100</v>
+      </c>
+      <c r="I24" s="22">
+        <v>100</v>
+      </c>
+      <c r="J24" s="22">
+        <v>2.2169999999999999E-2</v>
+      </c>
+      <c r="K24" s="22">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" s="19">
+        <v>5000</v>
+      </c>
+      <c r="H25" s="19">
+        <v>100</v>
+      </c>
+      <c r="I25" s="19">
+        <v>100</v>
+      </c>
+      <c r="J25" s="19">
+        <v>2.0688999999999999E-2</v>
+      </c>
+      <c r="K25" s="19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" s="19">
+        <v>5000</v>
+      </c>
+      <c r="H26" s="19">
+        <v>100</v>
+      </c>
+      <c r="I26" s="19">
+        <v>100</v>
+      </c>
+      <c r="J26" s="19">
+        <v>6.208E-3</v>
+      </c>
+      <c r="K26" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" s="19">
+        <v>5000</v>
+      </c>
+      <c r="H27" s="19">
+        <v>100</v>
+      </c>
+      <c r="I27" s="19">
+        <v>100</v>
+      </c>
+      <c r="J27" s="19">
+        <v>8.0479999999999996E-3</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="G28" s="22">
+        <v>5000</v>
+      </c>
+      <c r="H28" s="22">
+        <v>100</v>
+      </c>
+      <c r="I28" s="22">
+        <v>100</v>
+      </c>
+      <c r="J28" s="22">
+        <v>6.4479999999999997E-3</v>
+      </c>
+      <c r="K28" s="22">
+        <v>0.64</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="G29" s="19">
+        <v>5000</v>
+      </c>
+      <c r="H29" s="19">
+        <v>100</v>
+      </c>
+      <c r="I29" s="19">
+        <v>100</v>
+      </c>
+      <c r="J29" s="19">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="K29" s="19">
+        <v>1.93</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="G30" s="22">
+        <v>5000</v>
+      </c>
+      <c r="H30" s="22">
+        <v>100</v>
+      </c>
+      <c r="I30" s="22">
+        <v>100</v>
+      </c>
+      <c r="J30" s="22">
+        <v>1.073E-2</v>
+      </c>
+      <c r="K30" s="22">
+        <v>1.07</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G31" s="19">
+        <v>10000</v>
+      </c>
+      <c r="H31" s="19">
+        <v>1</v>
+      </c>
+      <c r="I31" s="19">
+        <v>2</v>
+      </c>
+      <c r="J31" s="19">
+        <v>2.5731E-2</v>
+      </c>
+      <c r="K31" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="G32" s="19">
+        <v>5000</v>
+      </c>
+      <c r="H32" s="19">
+        <v>100</v>
+      </c>
+      <c r="I32" s="19">
+        <v>100</v>
+      </c>
+      <c r="J32" s="19">
+        <v>5.9719999999999999E-3</v>
+      </c>
+      <c r="K32" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="G33" s="19">
+        <v>2000</v>
+      </c>
+      <c r="H33" s="19">
+        <v>1</v>
+      </c>
+      <c r="I33" s="19">
+        <v>1</v>
+      </c>
+      <c r="J33" s="19">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="K33" s="19">
+        <v>0.92</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="G34" s="19">
+        <v>3000</v>
+      </c>
+      <c r="H34" s="19">
+        <v>20</v>
+      </c>
+      <c r="I34" s="19">
+        <v>20</v>
+      </c>
+      <c r="J34" s="19">
+        <v>0.14746000000000001</v>
+      </c>
+      <c r="K34" s="19">
+        <v>2.95</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="19">
+        <v>3000</v>
+      </c>
+      <c r="H35" s="19">
+        <v>50</v>
+      </c>
+      <c r="I35" s="19">
+        <v>50</v>
+      </c>
+      <c r="J35" s="19">
+        <v>8.1298999999999996E-2</v>
+      </c>
+      <c r="K35" s="19">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="19">
         <v>4000</v>
       </c>
-      <c r="H6" s="30">
-        <v>20</v>
-      </c>
-      <c r="I6" s="30">
-        <v>20</v>
-      </c>
-      <c r="J6" s="30">
-        <v>0.143095</v>
-      </c>
-      <c r="K6" s="30">
+      <c r="H36" s="19">
+        <v>5</v>
+      </c>
+      <c r="I36" s="19">
+        <v>5</v>
+      </c>
+      <c r="J36" s="19">
+        <v>0.51241199999999998</v>
+      </c>
+      <c r="K36" s="19">
+        <v>2.56</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="19">
+        <v>50</v>
+      </c>
+      <c r="H37" s="19">
+        <v>1</v>
+      </c>
+      <c r="I37" s="19">
+        <v>1</v>
+      </c>
+      <c r="J37" s="19">
         <v>2.86</v>
       </c>
-      <c r="L6" s="31" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="31" t="s">
+      <c r="K37" s="19">
+        <v>2.86</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="F38" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" s="30">
-        <v>4000</v>
-      </c>
-      <c r="H7" s="30">
+      <c r="G38" s="19">
+        <v>3000</v>
+      </c>
+      <c r="H38" s="19">
         <v>5</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I38" s="19">
         <v>5</v>
       </c>
-      <c r="J7" s="30">
-        <v>0.53347699999999998</v>
-      </c>
-      <c r="K7" s="30">
-        <v>2.67</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" s="33" t="s">
+      <c r="J38" s="19">
+        <v>1.4856</v>
+      </c>
+      <c r="K38" s="19">
+        <v>7.43</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="19">
         <v>10</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="G8" s="33">
-        <v>4000</v>
-      </c>
-      <c r="H8" s="33">
-        <v>50</v>
-      </c>
-      <c r="I8" s="33">
-        <v>50</v>
-      </c>
-      <c r="J8" s="33">
-        <v>7.4642E-2</v>
-      </c>
-      <c r="K8" s="33">
-        <v>3.73</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="33" t="s">
+      <c r="I39" s="19">
+        <v>10</v>
+      </c>
+      <c r="J39" s="19">
+        <v>0.33617000000000002</v>
+      </c>
+      <c r="K39" s="19">
+        <v>3.36</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="19">
         <v>5</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="G9" s="33">
-        <v>4000</v>
-      </c>
-      <c r="H9" s="33">
-        <v>50</v>
-      </c>
-      <c r="I9" s="33">
-        <v>50</v>
-      </c>
-      <c r="J9" s="33">
-        <v>4.8708000000000001E-2</v>
-      </c>
-      <c r="K9" s="33">
-        <v>2.44</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="30">
-        <v>10000</v>
-      </c>
-      <c r="H10" s="30">
-        <v>20</v>
-      </c>
-      <c r="I10" s="30">
-        <v>20</v>
-      </c>
-      <c r="J10" s="30">
-        <v>0.27704099999999998</v>
-      </c>
-      <c r="K10" s="30">
-        <v>5.54</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="G11" s="30">
-        <v>2000</v>
-      </c>
-      <c r="H11" s="30">
-        <v>1</v>
-      </c>
-      <c r="I11" s="30">
-        <v>4</v>
-      </c>
-      <c r="J11" s="30">
-        <v>1.4165000000000001</v>
-      </c>
-      <c r="K11" s="30">
-        <v>5.67</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="G12" s="33">
-        <v>10000</v>
-      </c>
-      <c r="H12" s="33">
-        <v>1</v>
-      </c>
-      <c r="I12" s="33">
-        <v>4</v>
-      </c>
-      <c r="J12" s="33">
-        <v>2.862E-2</v>
-      </c>
-      <c r="K12" s="33">
-        <v>0.11</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" s="30">
-        <v>4000</v>
-      </c>
-      <c r="H13" s="30">
-        <v>50</v>
-      </c>
-      <c r="I13" s="30">
-        <v>50</v>
-      </c>
-      <c r="J13" s="30">
-        <v>3.1509000000000002E-2</v>
-      </c>
-      <c r="K13" s="30">
-        <v>1.58</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="G14" s="30">
-        <v>3000</v>
-      </c>
-      <c r="H14" s="30">
-        <v>10</v>
-      </c>
-      <c r="I14" s="30">
-        <v>10</v>
-      </c>
-      <c r="J14" s="30">
-        <v>0.243949</v>
-      </c>
-      <c r="K14" s="30">
-        <v>2.44</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G15" s="30">
-        <v>10000</v>
-      </c>
-      <c r="H15" s="30">
-        <v>20</v>
-      </c>
-      <c r="I15" s="30">
-        <v>20</v>
-      </c>
-      <c r="J15" s="30">
-        <v>0.128025</v>
-      </c>
-      <c r="K15" s="30">
-        <v>2.56</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="30">
-        <v>2500</v>
-      </c>
-      <c r="H16" s="30">
-        <v>10</v>
-      </c>
-      <c r="I16" s="30">
-        <v>10</v>
-      </c>
-      <c r="J16" s="30">
-        <v>0.33524999999999999</v>
-      </c>
-      <c r="K16" s="30">
-        <v>3.35</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="G17" s="33">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="33">
-        <v>10</v>
-      </c>
-      <c r="I17" s="33">
-        <v>10</v>
-      </c>
-      <c r="J17" s="33">
-        <v>0.28954200000000002</v>
-      </c>
-      <c r="K17" s="33">
-        <v>2.9</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="G18" s="30">
-        <v>39</v>
-      </c>
-      <c r="H18" s="30">
-        <v>13</v>
-      </c>
-      <c r="I18" s="30">
-        <v>13</v>
-      </c>
-      <c r="J18" s="30">
-        <v>0.59494899999999995</v>
-      </c>
-      <c r="K18" s="30">
-        <v>7.73</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="G19" s="30">
-        <v>3000</v>
-      </c>
-      <c r="H19" s="30">
-        <v>10</v>
-      </c>
-      <c r="I19" s="30">
-        <v>10</v>
-      </c>
-      <c r="J19" s="30">
-        <v>0.32025599999999999</v>
-      </c>
-      <c r="K19" s="30">
-        <v>3.2</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G20" s="30">
-        <v>3000</v>
-      </c>
-      <c r="H20" s="30">
-        <v>20</v>
-      </c>
-      <c r="I20" s="30">
-        <v>20</v>
-      </c>
-      <c r="J20" s="30">
-        <v>0.122444</v>
-      </c>
-      <c r="K20" s="30">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>323</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G21" s="30">
-        <v>5000</v>
-      </c>
-      <c r="H21" s="30">
-        <v>100</v>
-      </c>
-      <c r="I21" s="30">
-        <v>100</v>
-      </c>
-      <c r="J21" s="30">
-        <v>7.7609999999999997E-3</v>
-      </c>
-      <c r="K21" s="30">
-        <v>0.78</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="G22" s="33">
-        <v>5000</v>
-      </c>
-      <c r="H22" s="33">
-        <v>100</v>
-      </c>
-      <c r="I22" s="33">
-        <v>100</v>
-      </c>
-      <c r="J22" s="33">
-        <v>5.5069999999999997E-3</v>
-      </c>
-      <c r="K22" s="33">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="G23" s="30">
-        <v>5000</v>
-      </c>
-      <c r="H23" s="30">
-        <v>100</v>
-      </c>
-      <c r="I23" s="30">
-        <v>100</v>
-      </c>
-      <c r="J23" s="30">
-        <v>5.555E-3</v>
-      </c>
-      <c r="K23" s="30">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="G24" s="33">
-        <v>5000</v>
-      </c>
-      <c r="H24" s="33">
-        <v>100</v>
-      </c>
-      <c r="I24" s="33">
-        <v>100</v>
-      </c>
-      <c r="J24" s="33">
-        <v>2.2169999999999999E-2</v>
-      </c>
-      <c r="K24" s="33">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="G25" s="30">
-        <v>5000</v>
-      </c>
-      <c r="H25" s="30">
-        <v>100</v>
-      </c>
-      <c r="I25" s="30">
-        <v>100</v>
-      </c>
-      <c r="J25" s="30">
-        <v>2.0688999999999999E-2</v>
-      </c>
-      <c r="K25" s="30">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="L25" s="31" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G26" s="30">
-        <v>5000</v>
-      </c>
-      <c r="H26" s="30">
-        <v>100</v>
-      </c>
-      <c r="I26" s="30">
-        <v>100</v>
-      </c>
-      <c r="J26" s="30">
-        <v>6.208E-3</v>
-      </c>
-      <c r="K26" s="30">
-        <v>0.62</v>
-      </c>
-      <c r="L26" s="31" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G27" s="30">
-        <v>5000</v>
-      </c>
-      <c r="H27" s="30">
-        <v>100</v>
-      </c>
-      <c r="I27" s="30">
-        <v>100</v>
-      </c>
-      <c r="J27" s="30">
-        <v>8.0479999999999996E-3</v>
-      </c>
-      <c r="K27" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="L27" s="31" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="G28" s="33">
-        <v>5000</v>
-      </c>
-      <c r="H28" s="33">
-        <v>100</v>
-      </c>
-      <c r="I28" s="33">
-        <v>100</v>
-      </c>
-      <c r="J28" s="33">
-        <v>6.4479999999999997E-3</v>
-      </c>
-      <c r="K28" s="33">
-        <v>0.64</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="G29" s="30">
-        <v>5000</v>
-      </c>
-      <c r="H29" s="30">
-        <v>100</v>
-      </c>
-      <c r="I29" s="30">
-        <v>100</v>
-      </c>
-      <c r="J29" s="30">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="K29" s="30">
-        <v>1.93</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="G30" s="33">
-        <v>5000</v>
-      </c>
-      <c r="H30" s="33">
-        <v>100</v>
-      </c>
-      <c r="I30" s="33">
-        <v>100</v>
-      </c>
-      <c r="J30" s="33">
-        <v>1.073E-2</v>
-      </c>
-      <c r="K30" s="33">
-        <v>1.07</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G31" s="30">
-        <v>10000</v>
-      </c>
-      <c r="H31" s="30">
-        <v>1</v>
-      </c>
-      <c r="I31" s="30">
-        <v>2</v>
-      </c>
-      <c r="J31" s="30">
-        <v>2.5731E-2</v>
-      </c>
-      <c r="K31" s="30">
-        <v>0.05</v>
-      </c>
-      <c r="L31" s="31" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="G32" s="30">
-        <v>5000</v>
-      </c>
-      <c r="H32" s="30">
-        <v>100</v>
-      </c>
-      <c r="I32" s="30">
-        <v>100</v>
-      </c>
-      <c r="J32" s="30">
-        <v>5.9719999999999999E-3</v>
-      </c>
-      <c r="K32" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="L32" s="31" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="G33" s="30">
-        <v>2000</v>
-      </c>
-      <c r="H33" s="30">
-        <v>1</v>
-      </c>
-      <c r="I33" s="30">
-        <v>1</v>
-      </c>
-      <c r="J33" s="30">
-        <v>0.91710000000000003</v>
-      </c>
-      <c r="K33" s="30">
-        <v>0.92</v>
-      </c>
-      <c r="L33" s="31" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="G34" s="30">
-        <v>3000</v>
-      </c>
-      <c r="H34" s="30">
-        <v>20</v>
-      </c>
-      <c r="I34" s="30">
-        <v>20</v>
-      </c>
-      <c r="J34" s="30">
-        <v>0.14746000000000001</v>
-      </c>
-      <c r="K34" s="30">
-        <v>2.95</v>
-      </c>
-      <c r="L34" s="31" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="30">
-        <v>3000</v>
-      </c>
-      <c r="H35" s="30">
-        <v>50</v>
-      </c>
-      <c r="I35" s="30">
-        <v>50</v>
-      </c>
-      <c r="J35" s="30">
-        <v>8.1298999999999996E-2</v>
-      </c>
-      <c r="K35" s="30">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="L35" s="31" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="30">
-        <v>4000</v>
-      </c>
-      <c r="H36" s="30">
+      <c r="I40" s="19">
         <v>5</v>
       </c>
-      <c r="I36" s="30">
-        <v>5</v>
-      </c>
-      <c r="J36" s="30">
-        <v>0.51241199999999998</v>
-      </c>
-      <c r="K36" s="30">
-        <v>2.56</v>
-      </c>
-      <c r="L36" s="31" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>386</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G37" s="30">
-        <v>50</v>
-      </c>
-      <c r="H37" s="30">
-        <v>1</v>
-      </c>
-      <c r="I37" s="30">
-        <v>1</v>
-      </c>
-      <c r="J37" s="30">
-        <v>2.86</v>
-      </c>
-      <c r="K37" s="30">
-        <v>2.86</v>
-      </c>
-      <c r="L37" s="31" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G38" s="30">
-        <v>3000</v>
-      </c>
-      <c r="H38" s="30">
-        <v>5</v>
-      </c>
-      <c r="I38" s="30">
-        <v>5</v>
-      </c>
-      <c r="J38" s="30">
-        <v>1.4856</v>
-      </c>
-      <c r="K38" s="30">
-        <v>7.43</v>
-      </c>
-      <c r="L38" s="31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="J40" s="19">
+        <v>0.41139199999999998</v>
+      </c>
+      <c r="K40" s="19">
+        <v>2.06</v>
+      </c>
+      <c r="L40" s="20" t="s">
         <v>392</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="F39" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="G39" s="30">
-        <v>1000</v>
-      </c>
-      <c r="H39" s="30">
-        <v>10</v>
-      </c>
-      <c r="I39" s="30">
-        <v>10</v>
-      </c>
-      <c r="J39" s="30">
-        <v>0.33617000000000002</v>
-      </c>
-      <c r="K39" s="30">
-        <v>3.36</v>
-      </c>
-      <c r="L39" s="31" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="G40" s="30">
-        <v>1000</v>
-      </c>
-      <c r="H40" s="30">
-        <v>5</v>
-      </c>
-      <c r="I40" s="30">
-        <v>5</v>
-      </c>
-      <c r="J40" s="30">
-        <v>0.41139199999999998</v>
-      </c>
-      <c r="K40" s="30">
-        <v>2.06</v>
-      </c>
-      <c r="L40" s="31" t="s">
-        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/资料/BOM修订版_ESPlay Micro微型开源游戏掌机（精修版2.0）.xlsx
+++ b/资料/BOM修订版_ESPlay Micro微型开源游戏掌机（精修版2.0）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\dev-hardware\ESPlay\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF2D6A5-630B-4A71-BA25-ED4DF45DE2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1ABC4C-6368-4C68-AD83-3B3EEE042B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4640" yWindow="5630" windowWidth="28800" windowHeight="15460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-对于开关、按钮等原件，应该用电烙铁，如果使用热风枪加热可能导致原件烫坏</t>
+软按键应该用电烙铁，如果使用热风枪加热可能导致原件烫坏</t>
         </r>
       </text>
     </comment>
@@ -426,32 +426,6 @@
           </rPr>
           <t xml:space="preserve">
 淘宝 ESP32-WROVER-IE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{003B1C94-0710-4821-A6D7-0C04F7F08D21}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>can:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-对于 ESP32 Wrover 主控，不要使用锡膏的方式，容易出现芯片底部连锡，或者虚焊，应该用电烙铁</t>
         </r>
       </text>
     </comment>
@@ -642,7 +616,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="415">
   <si>
     <t>ID</t>
   </si>
@@ -2227,6 +2201,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2K2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2678,6 +2656,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2710,12 +2694,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4306,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540C55FA-B33A-44A4-B95D-35AD37709E44}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4384,7 +4362,7 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="28">
         <v>0</v>
       </c>
       <c r="C4" t="s">
@@ -4413,7 +4391,7 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="29">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -4504,7 +4482,7 @@
       <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="28">
         <v>0</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -4513,7 +4491,7 @@
       <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="29">
         <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4522,7 +4500,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>414</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>202</v>
@@ -6077,57 +6055,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="77" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="14" t="s">
         <v>237</v>
       </c>
